--- a/results/table2/MV.xlsx
+++ b/results/table2/MV.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +479,7 @@
       <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Grouped by race_white</t>
+          <t>Grouped by English Proficiency</t>
         </is>
       </c>
       <c r="D1" s="1" t="n"/>
@@ -488,12 +488,12 @@
       <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Racial-Ethnic Group</t>
+          <t>Limited</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Proficient</t>
         </is>
       </c>
     </row>
@@ -505,49 +505,53 @@
       </c>
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>1503</v>
+        <v>1078</v>
       </c>
       <c r="D4" t="n">
-        <v>7073</v>
+        <v>9463</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Year of Admission, n (%)</t>
+          <t>Sex , n (%)</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>2008 - 2010</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>600 (39.9)</t>
+          <t>456 (42.3)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2662 (37.6)</t>
+          <t>3944 (41.7)</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Health Insurance, n (%)</t>
+        </is>
+      </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>2011 - 2013</t>
+          <t>Medicare</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>376 (25.0)</t>
+          <t>431 (40.0)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1684 (23.8)</t>
+          <t>4488 (47.4)</t>
         </is>
       </c>
     </row>
@@ -555,17 +559,17 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>2014 - 2016</t>
+          <t>Medicaid</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>319 (21.2)</t>
+          <t>172 (16.0)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1615 (22.8)</t>
+          <t>616 (6.5)</t>
         </is>
       </c>
     </row>
@@ -573,126 +577,134 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>2017 - 2019</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>208 (13.8)</t>
+          <t>475 (44.1)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1112 (15.7)</t>
+          <t>4359 (46.1)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Sex , n (%)</t>
+          <t>Race-Ethnicity Group, n (%)</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>White</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>716 (47.6)</t>
+          <t>328 (30.4)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2932 (41.5)</t>
+          <t>6730 (71.1)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Health Insurance, n (%)</t>
+          <t>Elective Admission, n (%)</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Medicare</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>545 (36.3)</t>
+          <t>92 (8.5)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3586 (50.7)</t>
+          <t>1135 (12.0)</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Major Surgery, n (%)</t>
+        </is>
+      </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Medicaid</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>205 (13.6)</t>
+          <t>370 (34.3)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>399 (5.6)</t>
+          <t>3513 (37.1)</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>In-Hospital Mortality, n (%)</t>
+        </is>
+      </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>753 (50.1)</t>
+          <t>253 (23.5)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3088 (43.7)</t>
+          <t>2066 (21.8)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>English Proficiency, n (%)</t>
+          <t>MV initiated until the cohort day, n (%)</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>480 (31.9)</t>
+          <t>728 (67.5)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>331 (4.7)</t>
+          <t>6370 (67.3)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Elective Admission, n (%)</t>
+          <t>RRT initiated until the cohort day, n (%)</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -702,129 +714,129 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>114 (7.6)</t>
+          <t>35 (3.2)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>986 (13.9)</t>
+          <t>343 (3.6)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Major Surgery, n (%)</t>
+          <t>Vasopressor initiated until the cohort day, n (%)</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>432 (28.7)</t>
+          <t>550 (51.0)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2806 (39.7)</t>
+          <t>4872 (51.5)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>In-Hospital Mortality, n (%)</t>
+          <t>Hypertension, n (%)</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>313 (20.8)</t>
+          <t>732 (67.9)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1420 (20.1)</t>
+          <t>6107 (64.5)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>MV initiated until the cohort day, n (%)</t>
+          <t>Congestive Heart Failure, n (%)</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>850 (56.6)</t>
+          <t>409 (37.9)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4061 (57.4)</t>
+          <t>3534 (37.3)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RRT initiated until the cohort day, n (%)</t>
+          <t>COPD, n (%)</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>55 (3.7)</t>
+          <t>249 (23.1)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>214 (3.0)</t>
+          <t>2591 (27.4)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor initiated until the cohort day, n (%)</t>
+          <t>Asthma, n (%)</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>684 (45.5)</t>
+          <t>22 (2.0)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3665 (51.8)</t>
+          <t>163 (1.7)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Hypertension, n (%)</t>
+          <t>Coronary Artery Disease, n (%)</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -834,63 +846,59 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1030 (68.5)</t>
+          <t>384 (35.6)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4617 (65.3)</t>
+          <t>3603 (38.1)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Congestive Heart Failure, n (%)</t>
+          <t>CKD Stage, n (%)</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>578 (38.5)</t>
+          <t>1014 (94.1)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2710 (38.3)</t>
+          <t>8917 (94.2)</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>COPD, n (%)</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>405 (26.9)</t>
+          <t>64 (5.9)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1930 (27.3)</t>
+          <t>546 (5.8)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Asthma, n (%)</t>
+          <t>Diabetes Type, n (%)</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -900,81 +908,77 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22 (1.5)</t>
+          <t>10 (0.9)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>137 (1.9)</t>
+          <t>223 (2.4)</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Coronary Artery Disease, n (%)</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>405 (37.6)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2730 (28.8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>663 (61.5)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6510 (68.8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Connective Tissue Disease, n (%)</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>445 (29.6)</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2814 (39.8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>CKD Stage, n (%)</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1379 (91.7)</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>6680 (94.4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>124 (8.3)</t>
+          <t>30 (2.8)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>393 (5.6)</t>
+          <t>406 (4.3)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Diabetes Type, n (%)</t>
+          <t>Pneumonia, n (%)</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -984,55 +988,63 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>33 (2.2)</t>
+          <t>70 (6.5)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>167 (2.4)</t>
+          <t>536 (5.7)</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Urinary Tract Infection, n (%)</t>
+        </is>
+      </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>582 (38.7)</t>
+          <t>1 (0.1)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1988 (28.1)</t>
+          <t>42 (0.4)</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n"/>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Biliary Tract Infection, n (%)</t>
+        </is>
+      </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>888 (59.1)</t>
+          <t>2 (0.2)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4918 (69.5)</t>
+          <t>19 (0.2)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Connective Tissue Disease, n (%)</t>
+          <t>Skin Infection, n (%)</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -1040,292 +1052,199 @@
           <t>1.0</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>62 (4.1)</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>305 (4.3)</t>
+          <t>12 (0.1)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pneumonia, n (%)</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+          <t>Age, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>103 (6.9)</t>
+          <t>71 [58,82]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>384 (5.4)</t>
+          <t>67 [55,77]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Urinary Tract Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4 (0.3)</t>
+          <t>6.04 [3.50,10.33]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>33 (0.5)</t>
+          <t>5.83 [3.63,10.74]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Biliary Tract Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1 (0.1)</t>
+          <t>4.88 [2.96,10.04]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14 (0.2)</t>
+          <t>4.58 [2.96,8.46]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Skin Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2 (0.1)</t>
+          <t>5 [3,8]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>9 (0.1)</t>
+          <t>5 [3,7]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Age, median [Q1,Q3]</t>
+          <t>SOFA Score (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>64 [51,76]</t>
+          <t>7 [4,10]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>68 [58,79]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5.83 [3.54,10.17]</t>
+          <t>0.48 [0.21,0.75]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5.90 [3.57,10.51]</t>
+          <t>0.46 [0.21,0.73]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
+          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4.54 [2.96,8.79]</t>
+          <t>2.0 [1.0,5.0]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4.42 [2.92,8.17]</t>
+          <t>2.0 [1.0,6.0]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
+          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>46.5 [12.5,103.8]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>40.0 [11.0,97.0]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>SOFA Score (admission), median [Q1,Q3]</t>
+          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>3.0 [1.0,10.0]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>3.0 [1.0,10.0]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.33 [0.16,0.54]</t>
+          <t>0.24 [0.08,0.50]</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.29 [0.15,0.48]</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2.0 [1.0,7.0]</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>3.0 [1.0,8.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>41.0 [10.0,91.0]</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>45.0 [12.0,100.2]</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>3.0 [1.0,11.0]</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>3.0 [1.0,10.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>0.25 [0.10,0.48]</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.25 [0.09,0.47]</t>
+          <t>0.26 [0.09,0.49]</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
